--- a/doc/team-requisitos/Tabela de Requisitos.xlsx
+++ b/doc/team-requisitos/Tabela de Requisitos.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Catarina Pires\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{EBF37C92-E61C-4FBB-9BDF-73E03F773CB5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Página1" sheetId="1" r:id="rId3"/>
+    <sheet name="Página1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -65,9 +74,6 @@
     <t>O utilizador tem de poder efetuar o login e logout</t>
   </si>
   <si>
-    <t>O utilizador pode repôr a sua password caso se esqueça</t>
-  </si>
-  <si>
     <t>Média</t>
   </si>
   <si>
@@ -85,69 +91,60 @@
     <t>O utilizador pode aceder ao perfil de outro utilizador</t>
   </si>
   <si>
-    <t>O utilizador pode publicar uma noticia no feed</t>
-  </si>
-  <si>
     <t>Performance: não demorar mais de 2 segundos a carregar
 páginas</t>
+  </si>
+  <si>
+    <t>O utilizador pode repor a sua password caso se esqueça</t>
+  </si>
+  <si>
+    <t>O utilizador pode publicar uma notícia no feed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <b/>
-      <sz val="12.0"/>
-      <color rgb="FFCC0000"/>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
-      <color rgb="FFD9EAD3"/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
-    <font/>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FFFFF2CC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF3D85C6"/>
-        <bgColor rgb="FF3D85C6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FFFF0000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF42FF59"/>
-        <bgColor rgb="FF42FF59"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -157,13 +154,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="2"/>
+        <bgColor rgb="FFFFF2CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor rgb="FF3D85C6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor rgb="FF42FF59"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="13">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
@@ -174,6 +207,8 @@
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -185,6 +220,8 @@
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -196,6 +233,8 @@
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -210,6 +249,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -224,6 +264,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -238,6 +279,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -252,6 +294,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -266,6 +309,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -280,6 +324,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -294,6 +339,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -308,6 +354,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -322,363 +369,669 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="27">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="3" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="4" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="5" fillId="5" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="6" fillId="5" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="4" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="5" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="5" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="11" fillId="4" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="11" fillId="7" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="11" fillId="5" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="12" fillId="5" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="B2:L16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="49.57"/>
-    <col customWidth="1" min="3" max="3" width="8.0"/>
-    <col customWidth="1" min="4" max="4" width="20.29"/>
-    <col customWidth="1" min="5" max="6" width="13.86"/>
-    <col customWidth="1" min="7" max="7" width="13.43"/>
-    <col customWidth="1" min="8" max="8" width="15.43"/>
-    <col customWidth="1" min="9" max="9" width="16.71"/>
-    <col customWidth="1" min="10" max="10" width="11.43"/>
+    <col min="2" max="2" width="96.42578125" customWidth="1"/>
+    <col min="3" max="3" width="8" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" customWidth="1"/>
+    <col min="5" max="6" width="13.85546875" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="27.0" customHeight="1">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3">
-      <c r="B3" s="5" t="s">
+    <row r="3" spans="2:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="B3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="C3" s="8">
+        <v>1</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="10"/>
-    </row>
-    <row r="4">
-      <c r="B4" s="11" t="s">
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="12"/>
+    </row>
+    <row r="4" spans="2:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="B4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="12">
-        <v>2.0</v>
-      </c>
-      <c r="D4" s="12" t="s">
+      <c r="C4" s="14">
+        <v>2</v>
+      </c>
+      <c r="D4" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="16"/>
-    </row>
-    <row r="5">
-      <c r="B5" s="11" t="s">
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="18"/>
+    </row>
+    <row r="5" spans="2:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="B5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="12">
-        <v>3.0</v>
-      </c>
-      <c r="D5" s="17" t="s">
+      <c r="C5" s="14">
+        <v>3</v>
+      </c>
+      <c r="D5" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="16"/>
-    </row>
-    <row r="6">
-      <c r="B6" s="11" t="s">
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="18"/>
+    </row>
+    <row r="6" spans="2:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="B6" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="14">
+        <v>4</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="12">
-        <v>4.0</v>
-      </c>
-      <c r="D6" s="17" t="s">
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="18"/>
+    </row>
+    <row r="7" spans="2:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="B7" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="14">
+        <v>5</v>
+      </c>
+      <c r="D7" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E7" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="16"/>
-    </row>
-    <row r="7">
-      <c r="B7" s="11" t="s">
+      <c r="F7" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="18"/>
+    </row>
+    <row r="8" spans="2:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="B8" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="12">
-        <v>5.0</v>
-      </c>
-      <c r="D7" s="17" t="s">
+      <c r="C8" s="14">
+        <v>6</v>
+      </c>
+      <c r="D8" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E8" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F8" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="18"/>
+    </row>
+    <row r="9" spans="2:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="B9" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="14">
+        <v>7</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="16"/>
-    </row>
-    <row r="8">
-      <c r="B8" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="12">
-        <v>6.0</v>
-      </c>
-      <c r="D8" s="17" t="s">
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="18"/>
+    </row>
+    <row r="10" spans="2:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="B10" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="14">
+        <v>8</v>
+      </c>
+      <c r="D10" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E10" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="16"/>
-    </row>
-    <row r="9">
-      <c r="B9" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="12">
-        <v>7.0</v>
-      </c>
-      <c r="D9" s="17" t="s">
+      <c r="F10" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="18"/>
+    </row>
+    <row r="11" spans="2:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="B11" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="14">
+        <v>9</v>
+      </c>
+      <c r="D11" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E11" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F11" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="16"/>
-    </row>
-    <row r="10">
-      <c r="B10" s="11" t="s">
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="18"/>
+    </row>
+    <row r="12" spans="2:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="B12" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="12">
-        <v>8.0</v>
-      </c>
-      <c r="D10" s="17" t="s">
+      <c r="C12" s="21">
+        <v>10</v>
+      </c>
+      <c r="D12" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E12" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="16"/>
-    </row>
-    <row r="11">
-      <c r="B11" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="12">
-        <v>9.0</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="16"/>
-    </row>
-    <row r="12">
-      <c r="B12" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="19">
-        <v>10.0</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="24"/>
-    </row>
-    <row r="16">
-      <c r="H16" s="25"/>
+      <c r="F12" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="25"/>
+    </row>
+    <row r="15" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+    </row>
+    <row r="16" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="H16" s="1"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/doc/team-requisitos/Tabela de Requisitos.xlsx
+++ b/doc/team-requisitos/Tabela de Requisitos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Catarina Pires\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{EBF37C92-E61C-4FBB-9BDF-73E03F773CB5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A7667CCA-667B-4EEE-82F9-342FA145D2F4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Página1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="30">
   <si>
     <t>Requisito</t>
   </si>
@@ -99,13 +99,126 @@
   </si>
   <si>
     <t>O utilizador pode publicar uma notícia no feed</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Implementado:    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF70AD47"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Sim                       </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Não</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tipo:                     </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF70AD47"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Funcional</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">             </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Não Funcional</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Removido:           </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF70AD47"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Não Removido     </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Removido</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Alterado:              </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF70AD47"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Não                       </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Sim</t>
+    </r>
+  </si>
+  <si>
+    <t>LEGENDA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -134,6 +247,41 @@
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF70AD47"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -375,7 +523,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -421,6 +569,12 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -738,10 +892,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B2:L16"/>
+  <dimension ref="B2:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1022,16 +1176,41 @@
       <c r="K12" s="24"/>
       <c r="L12" s="25"/>
     </row>
+    <row r="14" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="28" t="s">
+        <v>29</v>
+      </c>
+    </row>
     <row r="15" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="27"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B16" s="27" t="s">
+        <v>25</v>
+      </c>
       <c r="H16" s="1"/>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
     </row>
+    <row r="17" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="27" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/team-requisitos/Tabela de Requisitos.xlsx
+++ b/doc/team-requisitos/Tabela de Requisitos.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Catarina Pires\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A7667CCA-667B-4EEE-82F9-342FA145D2F4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{DDBDBCB1-FB59-460B-8C5D-A2B8B0335908}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Página1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
@@ -75,10 +75,6 @@
   </si>
   <si>
     <t>Média</t>
-  </si>
-  <si>
-    <t>Efetuado o login a app mostra um feed de notícias de 
-acordo com as preferências do utilizador</t>
   </si>
   <si>
     <t>Ícone com três linhas horizontais revela aba lateral com 
@@ -213,6 +209,10 @@
   <si>
     <t>LEGENDA</t>
   </si>
+  <si>
+    <t>Efetuado o login com sucesso a app mostra um feed de notícias de 
+acordo com as preferências do utilizador</t>
+  </si>
 </sst>
 </file>
 
@@ -227,6 +227,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -523,7 +524,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -541,7 +542,6 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -560,7 +560,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -574,6 +573,15 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -892,10 +900,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B2:L19"/>
+  <dimension ref="B2:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -946,267 +954,271 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="B3" s="7" t="s">
+    <row r="3" spans="2:12" ht="30" x14ac:dyDescent="0.2">
+      <c r="B3" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7">
         <v>1</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="12"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="11"/>
     </row>
     <row r="4" spans="2:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="13">
         <v>2</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="18"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="17"/>
     </row>
     <row r="5" spans="2:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="13">
         <v>3</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="18"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="17"/>
     </row>
     <row r="6" spans="2:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="13">
+        <v>4</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="17"/>
+    </row>
+    <row r="7" spans="2:12" ht="30" x14ac:dyDescent="0.2">
+      <c r="B7" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="13">
+        <v>5</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="17"/>
+    </row>
+    <row r="8" spans="2:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="B8" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="13">
+        <v>6</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="17"/>
+    </row>
+    <row r="9" spans="2:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="B9" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="13">
+        <v>7</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="17"/>
+    </row>
+    <row r="10" spans="2:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="B10" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="13">
+        <v>8</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="17"/>
+    </row>
+    <row r="11" spans="2:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="B11" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="14">
-        <v>4</v>
-      </c>
-      <c r="D6" s="19" t="s">
+      <c r="C11" s="13">
+        <v>9</v>
+      </c>
+      <c r="D11" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E11" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F11" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="17"/>
+    </row>
+    <row r="12" spans="2:12" ht="30" x14ac:dyDescent="0.2">
+      <c r="B12" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="19">
+        <v>10</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="18"/>
-    </row>
-    <row r="7" spans="2:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="B7" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="14">
-        <v>5</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="18"/>
-    </row>
-    <row r="8" spans="2:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="B8" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="14">
-        <v>6</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="18"/>
-    </row>
-    <row r="9" spans="2:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="B9" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="14">
-        <v>7</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="18"/>
-    </row>
-    <row r="10" spans="2:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="B10" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="14">
-        <v>8</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="18"/>
-    </row>
-    <row r="11" spans="2:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="B11" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="14">
-        <v>9</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="18"/>
-    </row>
-    <row r="12" spans="2:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="B12" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="21">
-        <v>10</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="25"/>
-    </row>
-    <row r="14" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="28" t="s">
-        <v>29</v>
-      </c>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="23"/>
     </row>
     <row r="15" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="27"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B16" s="27" t="s">
-        <v>25</v>
-      </c>
+    <row r="16" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H16" s="1"/>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
     </row>
     <row r="17" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="25"/>
+    </row>
+    <row r="19" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="25" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="27" t="s">
+    <row r="22" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="25" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="27" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/doc/team-requisitos/Tabela de Requisitos.xlsx
+++ b/doc/team-requisitos/Tabela de Requisitos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Catarina Pires\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{DDBDBCB1-FB59-460B-8C5D-A2B8B0335908}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{74922CD8-1B71-4A93-9D7E-0CC1860967F0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Página1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="47">
   <si>
     <t>Requisito</t>
   </si>
@@ -55,10 +55,6 @@
     <t>Alterado</t>
   </si>
   <si>
-    <t>O utilizador tem de usar os seus dados pessoais para se
- registar na app</t>
-  </si>
-  <si>
     <t>1º Sprint</t>
   </si>
   <si>
@@ -69,9 +65,6 @@
   </si>
   <si>
     <t>No ato de registo, verificar que o ORCID inserido é válido</t>
-  </si>
-  <si>
-    <t>O utilizador tem de poder efetuar o login e logout</t>
   </si>
   <si>
     <t>Média</t>
@@ -81,17 +74,7 @@
 várias opções de navegação pela app</t>
   </si>
   <si>
-    <t>O utilizador pode aceder ao seu perfil</t>
-  </si>
-  <si>
     <t>O utilizador pode aceder ao perfil de outro utilizador</t>
-  </si>
-  <si>
-    <t>Performance: não demorar mais de 2 segundos a carregar
-páginas</t>
-  </si>
-  <si>
-    <t>O utilizador pode repor a sua password caso se esqueça</t>
   </si>
   <si>
     <t>O utilizador pode publicar uma notícia no feed</t>
@@ -210,15 +193,80 @@
     <t>LEGENDA</t>
   </si>
   <si>
-    <t>Efetuado o login com sucesso a app mostra um feed de notícias de 
-acordo com as preferências do utilizador</t>
+    <t>O utilizador deve introduzir a sua data de nascimento no Registo</t>
+  </si>
+  <si>
+    <t>O utilizador tem de fornecer o primeiro e último nome no Registo</t>
+  </si>
+  <si>
+    <t>O utilizador deve introduzir uma instituição à qual está filiado.</t>
+  </si>
+  <si>
+    <t>O utilizador pode associar-se a uma ou mais Research Units</t>
+  </si>
+  <si>
+    <t>No registo, o utilizador cria um username e password.</t>
+  </si>
+  <si>
+    <t>O utilizador deve poder selecionar (escrever) os seus temas.</t>
+  </si>
+  <si>
+    <t>O utilizador deve poder cancelar o processo de registo a qualquer momento.</t>
+  </si>
+  <si>
+    <t>No login deve ser sugerida a recuperação de password a um utilizador que erre a palavra-passe mais que 3 vezes</t>
+  </si>
+  <si>
+    <t>Baixa</t>
+  </si>
+  <si>
+    <t>Após o registo, o utilizador é redirecionado para o feed.</t>
+  </si>
+  <si>
+    <t>O utilizador pode efetuar logout</t>
+  </si>
+  <si>
+    <t>Se os dados de login estiverem corretos, o utilizador é redirecionado para o feed de notícias</t>
+  </si>
+  <si>
+    <t>O feed de notícias tem de estar de acordo com as preferências do utilizador</t>
+  </si>
+  <si>
+    <t>Em cada ecrã o botão “?” deve fornecer informação relevante à navegação do utilizador.</t>
+  </si>
+  <si>
+    <t>Cada post apresenta foto e nome de quem postou, assim como o conteúdo</t>
+  </si>
+  <si>
+    <t>No registo o utilizador insere um email válido</t>
+  </si>
+  <si>
+    <t>O utilizador consegue aceder ao seu perfil através do feed</t>
+  </si>
+  <si>
+    <t>No registo devem ser sugeridos temas de interesse populares ao utilizador</t>
+  </si>
+  <si>
+    <t>O utilizador deve ser capaz de selecionar temas de interesse sugeridos pela aplicação</t>
+  </si>
+  <si>
+    <t>Performance: não demorar mais de 3 segundos a carregar páginas</t>
+  </si>
+  <si>
+    <t>O perfil do utilizador contém: O seu nome, research unit(s), instituição, temas de interesse e uma fotografia</t>
+  </si>
+  <si>
+    <t>Estando no seu perfil, pode retroceder para a página do feed</t>
+  </si>
+  <si>
+    <t>Não</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -237,17 +285,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -338,7 +375,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -347,53 +384,38 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
@@ -402,41 +424,22 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -447,141 +450,86 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -900,10 +848,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B2:L22"/>
+  <dimension ref="B2:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -920,305 +868,650 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="19" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:12" ht="30" x14ac:dyDescent="0.2">
-      <c r="B3" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="7">
+    <row r="3" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B3" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="9">
         <v>1</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="7" t="s">
+      <c r="D3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+    </row>
+    <row r="4" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="11"/>
-    </row>
-    <row r="4" spans="2:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="B4" s="12" t="s">
+      <c r="C4" s="9">
+        <v>2</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="13">
-        <v>2</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="13" t="s">
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+    </row>
+    <row r="5" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B5" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="25">
+        <v>3</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+    </row>
+    <row r="6" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B6" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="25">
+        <v>4</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+    </row>
+    <row r="7" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B7" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="25">
+        <v>5</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+    </row>
+    <row r="8" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B8" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="25">
+        <v>6</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+    </row>
+    <row r="9" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B9" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="25">
+        <v>7</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+    </row>
+    <row r="10" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="25">
+        <v>8</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+    </row>
+    <row r="11" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B11" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="25">
+        <v>9</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+    </row>
+    <row r="12" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B12" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="25">
+        <v>10</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+    </row>
+    <row r="13" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="25">
+        <v>11</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+    </row>
+    <row r="14" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="25">
+        <v>12</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+    </row>
+    <row r="15" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="25">
+        <v>13</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+    </row>
+    <row r="16" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="25">
         <v>14</v>
       </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="17"/>
-    </row>
-    <row r="5" spans="2:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="B5" s="12" t="s">
+      <c r="D16" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+    </row>
+    <row r="17" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="9">
+        <v>15</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+    </row>
+    <row r="18" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="9">
         <v>16</v>
       </c>
-      <c r="C5" s="13">
-        <v>3</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="13" t="s">
+      <c r="D18" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="17"/>
-    </row>
-    <row r="6" spans="2:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="B6" s="12" t="s">
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+    </row>
+    <row r="19" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="9">
+        <v>17</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+    </row>
+    <row r="20" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="9">
+        <v>18</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+    </row>
+    <row r="21" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="9">
+        <v>19</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+    </row>
+    <row r="22" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="9">
+        <v>20</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+    </row>
+    <row r="23" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="9">
+        <v>21</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+    </row>
+    <row r="24" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="9">
         <v>22</v>
       </c>
-      <c r="C6" s="13">
-        <v>4</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="13" t="s">
+      <c r="D24" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="17"/>
-    </row>
-    <row r="7" spans="2:12" ht="30" x14ac:dyDescent="0.2">
-      <c r="B7" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="13">
-        <v>5</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="13" t="s">
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+    </row>
+    <row r="25" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="9">
+        <v>23</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="17"/>
-    </row>
-    <row r="8" spans="2:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="B8" s="12" t="s">
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
+    </row>
+    <row r="26" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="13">
-        <v>6</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="13" t="s">
+      <c r="C26" s="9">
+        <v>24</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="17"/>
-    </row>
-    <row r="9" spans="2:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="B9" s="12" t="s">
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="22"/>
+    </row>
+    <row r="27" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="9">
+        <v>25</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="22"/>
+    </row>
+    <row r="28" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+    </row>
+    <row r="29" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H29" s="1"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+    </row>
+    <row r="30" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="3"/>
+    </row>
+    <row r="32" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="13">
-        <v>7</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="17"/>
-    </row>
-    <row r="10" spans="2:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="B10" s="12" t="s">
+    </row>
+    <row r="33" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="13">
-        <v>8</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="17"/>
-    </row>
-    <row r="11" spans="2:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="B11" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="13">
-        <v>9</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="17"/>
-    </row>
-    <row r="12" spans="2:12" ht="30" x14ac:dyDescent="0.2">
-      <c r="B12" s="28" t="s">
+    </row>
+    <row r="34" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="19">
-        <v>10</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="23"/>
-    </row>
-    <row r="15" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-    </row>
-    <row r="16" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="H16" s="1"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-    </row>
-    <row r="17" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="26" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="25"/>
-    </row>
-    <row r="19" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="25" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="25" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="25" t="s">
-        <v>27</v>
+    </row>
+    <row r="35" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
